--- a/biology/Médecine/Hippocrate_(série_télévisée)/Hippocrate_(série_télévisée).xlsx
+++ b/biology/Médecine/Hippocrate_(série_télévisée)/Hippocrate_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hippocrate_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocrate est une série télévisée française créée par Thomas Lilti et diffusée depuis le 26 novembre 2018 sur Canal+.
 Il s'agit d'un développement du film du même titre également réalisé par Thomas Lilti.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hippocrate_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de mesures sanitaires, les médecins titulaires du service de médecine interne de l'hôpital Raymond-Poincaré se retrouvent confinés chez eux pour 48 h. Trois internes inexpérimentés et un médecin légiste, qui ne se connaissent pas encore, vont devoir faire bloc pour gérer seuls le service et les malades. Mais la quarantaine se prolonge…
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hippocrate_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Louise Bourgoin : Chloé Antovska, interne de spécialité
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Louise Bourgoin : Chloé Antovska, interne de spécialité
 Alice Belaïdi : Alyson Lévêque, interne de spécialité
 Karim Leklou : Arben Bascha, médecin légiste
 Zacharie Chasseriaud : Hugo Wagner, interne de spécialité
 Anne Consigny : Muriel Wagner, cheffe du service de réanimation
 Éric Caravaca : Manuel Simoni, chef du service de médecine interne
 Bouli Lanners : Olivier Brun, chef du service des urgences (depuis la saison 2)
-Géraldine Nakache : Nathalie Ferrand, directrice de l'hôpital Raymond-Poincaré
-Acteurs secondaires
-Sylvie Lachat : Martine Bogossian, cadre de santé du service de médecine interne
+Géraldine Nakache : Nathalie Ferrand, directrice de l'hôpital Raymond-Poincaré</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hippocrate_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sylvie Lachat : Martine Bogossian, cadre de santé du service de médecine interne
 Théo Navarro-Mussy : Igor Jurozak, interne de spécialité (saisons 1–2)
 Bellamine Abdelmalek : Lazare Pintao, interne de spécialité
 Mustapha Abourachid : Saïd Larouchi, médecin
@@ -576,31 +629,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hippocrate_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Créateur : Thomas Lilti
 Réalisation : Thomas Lilti
@@ -612,7 +667,7 @@
 Montage : Gwen Mallauran, Jean-Baptiste Morin, Julie Picouleau et Matthieu Ruyssen
 Casting : Julie Navarro
 Costumes : Dorothée Guiraud
-Budget : 10,8 millions d'euros (saison 1) [1],[2]
+Budget : 10,8 millions d'euros (saison 1) ,
 Pays d'origine :  France
 Langue originale : français
 Nombre de saisons : 2
@@ -622,50 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Lilti prévoyait dès le départ de créer une série sur l'univers hospitalier après l'échec de son premier long métrage, Les Yeux bandés (2007), mais il a finalement pu réaliser d'abord un long métrage sur le sujet, Hippocrate (2014), sans abandonner l'idée de faire une série ensuite[3].
-Le tournage a lieu dans une aile désaffectée du centre hospitalier Robert Ballanger en Seine-Saint-Denis[4],[3]. L'équipe de tournage a dû reconstituer un environnement hospitalier, en aménageant des chambres, salles de réunions ou encore des box d'urgence. Le réalisateur déclare avoir parfois emprunté du vrai matériel médical à l'hôpital voisin, toujours en activité[3].
-À la suite du succès de la série, Thomas Lilti annonce en novembre 2018 qu'une deuxième saison est prévue[3]. Le tournage de cette deuxième saison devait initialement commencer au cours de l'automne 2019 d'après Alice Belaïdi[5], mais celui-ci ne commencera finalement qu'au mois de janvier suivant, en raison d'une grossesse inattendue[6]. Le magazine Télé Loisirs estime que la deuxième saison sera diffusée à la fin de l'année 2020 sur Canal+[7].
-Canal+, dans un communiqué[8], confirme officiellement que la réalisation de la deuxième saison est en cours. La chaîne révèle par ailleurs le scénario de la saison :
-Une vague de froid s'abat sur la France, alors les hôpitaux se retrouvent submergés de patients. Alyson et Hugo poursuivent leur stage dans le service de médecine interne. Chloé, l'interne sénior qui a été gravement malade à la fin de la première saison, tente de revenir pratiquer malgré son état de santé inquiétant. Quant à l'interne albanais Arben, la directrice de l'hôpital avait découvert qu'il pratiquait la médecine sans avoir terminé ses études en Albanie à la fin de la première saison, il disparaît sans laisser d'adresse. Les internes vont devoir gérer l'hôpital Raymond-Poincaré sous la tutelle de leur nouveau chef de service des urgences.
-Début 2020, le tournage est cependant suspendu en raison de la pandémie de Covid-19. Le scénario n'a pas globalement été réécrit par rapport à celle-ci, si ce n'est quelques scènes des derniers épisodes. Durant le premier confinement, le réalisateur, ancien médecin, a prêté main-forte aux équipes de l'hôpital dans lequel il tournait et leur a donné le matériel qu'il utilisait pour les besoins de la série[9].
-Le 25 juin 2021, Thomas Lilti confirme dans un nouveau numéro de SérieLand, le podcast séries d'Europe1 Studio qu'une saison 3 est en préparation[10]. Fin mars 2023, Canal+ annonce le début du tournage de la saison 3[11].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hippocrate_(série_télévisée)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,17 +698,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2018)
-La saison 1, de huit épisodes, est diffusée à partir du 26 novembre 2018.
-Deuxième saison (2021)
-La deuxième saison de huit épisodes est diffusée à partir du 5 avril 2021. Elle est tournée à l’hôpital Robert-Ballanger d’Aulnay-sous-Bois (Seine-Saint-Denis) ainsi qu'à l'hôpital Raymond-Poincaré de Garches. Les personnages principaux se retrouvent pour cette deuxième saison[12].
-Troisième saison (2024)
-Elle est prévue pour septembre 2024.
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Lilti prévoyait dès le départ de créer une série sur l'univers hospitalier après l'échec de son premier long métrage, Les Yeux bandés (2007), mais il a finalement pu réaliser d'abord un long métrage sur le sujet, Hippocrate (2014), sans abandonner l'idée de faire une série ensuite.
+Le tournage a lieu dans une aile désaffectée du centre hospitalier Robert Ballanger en Seine-Saint-Denis,. L'équipe de tournage a dû reconstituer un environnement hospitalier, en aménageant des chambres, salles de réunions ou encore des box d'urgence. Le réalisateur déclare avoir parfois emprunté du vrai matériel médical à l'hôpital voisin, toujours en activité.
+À la suite du succès de la série, Thomas Lilti annonce en novembre 2018 qu'une deuxième saison est prévue. Le tournage de cette deuxième saison devait initialement commencer au cours de l'automne 2019 d'après Alice Belaïdi, mais celui-ci ne commencera finalement qu'au mois de janvier suivant, en raison d'une grossesse inattendue. Le magazine Télé Loisirs estime que la deuxième saison sera diffusée à la fin de l'année 2020 sur Canal+.
+Canal+, dans un communiqué, confirme officiellement que la réalisation de la deuxième saison est en cours. La chaîne révèle par ailleurs le scénario de la saison :
+Une vague de froid s'abat sur la France, alors les hôpitaux se retrouvent submergés de patients. Alyson et Hugo poursuivent leur stage dans le service de médecine interne. Chloé, l'interne sénior qui a été gravement malade à la fin de la première saison, tente de revenir pratiquer malgré son état de santé inquiétant. Quant à l'interne albanais Arben, la directrice de l'hôpital avait découvert qu'il pratiquait la médecine sans avoir terminé ses études en Albanie à la fin de la première saison, il disparaît sans laisser d'adresse. Les internes vont devoir gérer l'hôpital Raymond-Poincaré sous la tutelle de leur nouveau chef de service des urgences.
+Début 2020, le tournage est cependant suspendu en raison de la pandémie de Covid-19. Le scénario n'a pas globalement été réécrit par rapport à celle-ci, si ce n'est quelques scènes des derniers épisodes. Durant le premier confinement, le réalisateur, ancien médecin, a prêté main-forte aux équipes de l'hôpital dans lequel il tournait et leur a donné le matériel qu'il utilisait pour les besoins de la série.
+Le 25 juin 2021, Thomas Lilti confirme dans un nouveau numéro de SérieLand, le podcast séries d'Europe1 Studio qu'une saison 3 est en préparation. Fin mars 2023, Canal+ annonce le début du tournage de la saison 3.
 </t>
         </is>
       </c>
@@ -701,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hippocrate_(série_télévisée)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,16 +737,132 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Première saison (2018)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison 1, de huit épisodes, est diffusée à partir du 26 novembre 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hippocrate_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La deuxième saison de huit épisodes est diffusée à partir du 5 avril 2021. Elle est tournée à l’hôpital Robert-Ballanger d’Aulnay-sous-Bois (Seine-Saint-Denis) ainsi qu'à l'hôpital Raymond-Poincaré de Garches. Les personnages principaux se retrouvent pour cette deuxième saison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hippocrate_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Troisième saison (2024)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est prévue pour septembre 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hippocrate_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critiques
-La majorité de la critique française est élogieuse sur la série[réf. nécessaire].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité de la critique française est élogieuse sur la série[réf. nécessaire].
 La première saison a une note moyenne de 3,9 sur 5 chez AlloCiné[réf. nécessaire].
-On peut lire dans Le Monde : « C’est grâce à la force, à la subtilité et à la profonde humanité du propos, du jeu et de la réalisation, qui font d’Hippocrate un chef-d’œuvre du genre[13]. »
-Ou encore dans Première : « Thomas Lilti redonne avec cet accueillant programme à l’impeccable casting tous ses sens au mot hospitalier. »[14]
+On peut lire dans Le Monde : « C’est grâce à la force, à la subtilité et à la profonde humanité du propos, du jeu et de la réalisation, qui font d’Hippocrate un chef-d’œuvre du genre. »
+Ou encore dans Première : « Thomas Lilti redonne avec cet accueillant programme à l’impeccable casting tous ses sens au mot hospitalier. »
 </t>
         </is>
       </c>
